--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE CPH.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE CPH.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1008,12 +1008,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,11 +1017,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1035,7 +1026,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1934,7 +1933,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2066,7 +2064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2397,7 +2394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2518,7 +2514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3752,7 +3747,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5680,15 +5674,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1766777</xdr:colOff>
-          <xdr:row>283</xdr:row>
-          <xdr:rowOff>161260</xdr:rowOff>
+          <xdr:colOff>1760574</xdr:colOff>
+          <xdr:row>282</xdr:row>
+          <xdr:rowOff>114522</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>785259</xdr:colOff>
-          <xdr:row>284</xdr:row>
-          <xdr:rowOff>150849</xdr:rowOff>
+          <xdr:colOff>636181</xdr:colOff>
+          <xdr:row>283</xdr:row>
+          <xdr:rowOff>104110</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11558,91 +11552,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
-  <location ref="A24:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11759,8 +11669,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:I52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11947,6 +11857,90 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+  <location ref="A24:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -12226,9 +12220,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L310" sqref="L310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12250,94 +12244,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="25" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -21568,7 +21562,7 @@
         <v>59</v>
       </c>
       <c r="L285" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M285" s="20" t="s">
         <v>199</v>
@@ -21612,7 +21606,7 @@
         <v>59</v>
       </c>
       <c r="L286" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M286" s="20" t="s">
         <v>199</v>
@@ -21656,7 +21650,7 @@
         <v>59</v>
       </c>
       <c r="L287" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M287" s="20" t="s">
         <v>199</v>
@@ -21700,7 +21694,7 @@
         <v>59</v>
       </c>
       <c r="L288" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M288" s="20" t="s">
         <v>199</v>
@@ -21744,7 +21738,7 @@
         <v>59</v>
       </c>
       <c r="L289" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M289" s="20" t="s">
         <v>199</v>
@@ -21788,7 +21782,7 @@
         <v>59</v>
       </c>
       <c r="L290" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M290" s="20" t="s">
         <v>199</v>
@@ -22235,7 +22229,7 @@
         <v>59</v>
       </c>
       <c r="L304" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M304" s="21" t="s">
         <v>200</v>
@@ -22277,7 +22271,7 @@
         <v>59</v>
       </c>
       <c r="L305" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M305" s="21" t="s">
         <v>200</v>
@@ -22319,7 +22313,7 @@
         <v>59</v>
       </c>
       <c r="L306" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M306" s="21" t="s">
         <v>200</v>
@@ -22361,7 +22355,7 @@
         <v>59</v>
       </c>
       <c r="L307" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M307" s="21" t="s">
         <v>200</v>
@@ -22403,7 +22397,7 @@
         <v>59</v>
       </c>
       <c r="L308" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M308" s="21" t="s">
         <v>200</v>
@@ -22445,7 +22439,7 @@
         <v>59</v>
       </c>
       <c r="L309" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M309" s="21" t="s">
         <v>200</v>
@@ -22851,7 +22845,7 @@
         <v>59</v>
       </c>
       <c r="L320" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N320" s="1">
         <v>45041</v>
@@ -22892,7 +22886,7 @@
         <v>59</v>
       </c>
       <c r="L321" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N321" s="1">
         <v>45041</v>
@@ -22933,7 +22927,7 @@
         <v>59</v>
       </c>
       <c r="L322" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N322" s="1">
         <v>45041</v>
@@ -22974,7 +22968,7 @@
         <v>59</v>
       </c>
       <c r="L323" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N323" s="1">
         <v>45041</v>
@@ -23015,7 +23009,7 @@
         <v>59</v>
       </c>
       <c r="L324" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N324" s="1">
         <v>45041</v>
@@ -23056,7 +23050,7 @@
         <v>59</v>
       </c>
       <c r="L325" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N325" s="1">
         <v>45041</v>
@@ -23097,7 +23091,7 @@
         <v>59</v>
       </c>
       <c r="L326" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N326" s="1">
         <v>45041</v>
@@ -23138,7 +23132,7 @@
         <v>59</v>
       </c>
       <c r="L327" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N327" s="1">
         <v>45041</v>
@@ -23179,7 +23173,7 @@
         <v>59</v>
       </c>
       <c r="L328" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N328" s="1">
         <v>45041</v>
@@ -23220,7 +23214,7 @@
         <v>59</v>
       </c>
       <c r="L329" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N329" s="1">
         <v>45041</v>
@@ -23261,7 +23255,7 @@
         <v>59</v>
       </c>
       <c r="L330" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N330" s="1">
         <v>45041</v>
@@ -23400,14 +23394,14 @@
               <from>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>1762125</xdr:colOff>
-                <xdr:row>283</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>282</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>781050</xdr:colOff>
-                <xdr:row>284</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>283</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
